--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H2">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I2">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J2">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N2">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O2">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P2">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q2">
-        <v>6508.322744671984</v>
+        <v>6757.425846949536</v>
       </c>
       <c r="R2">
-        <v>6508.322744671984</v>
+        <v>27029.70338779814</v>
       </c>
       <c r="S2">
-        <v>0.01789366585633558</v>
+        <v>0.01516206243089851</v>
       </c>
       <c r="T2">
-        <v>0.01789366585633558</v>
+        <v>0.008151160869809567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H3">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I3">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J3">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N3">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O3">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P3">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q3">
-        <v>13.29163670959921</v>
+        <v>15.029979481924</v>
       </c>
       <c r="R3">
-        <v>13.29163670959921</v>
+        <v>90.17987689154401</v>
       </c>
       <c r="S3">
-        <v>3.654337919244642E-05</v>
+        <v>3.372371260913331E-05</v>
       </c>
       <c r="T3">
-        <v>3.654337919244642E-05</v>
+        <v>2.719492231255583E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H4">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I4">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J4">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N4">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O4">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P4">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q4">
-        <v>2102.631135368837</v>
+        <v>2413.730785198128</v>
       </c>
       <c r="R4">
-        <v>2102.631135368837</v>
+        <v>14482.38471118877</v>
       </c>
       <c r="S4">
-        <v>0.005780871728621336</v>
+        <v>0.005415839949331672</v>
       </c>
       <c r="T4">
-        <v>0.005780871728621336</v>
+        <v>0.004367352681075297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H5">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I5">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J5">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N5">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O5">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P5">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q5">
-        <v>1771.74546262656</v>
+        <v>1848.698457258906</v>
       </c>
       <c r="R5">
-        <v>1771.74546262656</v>
+        <v>11092.19074355344</v>
       </c>
       <c r="S5">
-        <v>0.004871150761027016</v>
+        <v>0.004148041289645634</v>
       </c>
       <c r="T5">
-        <v>0.004871150761027016</v>
+        <v>0.003344995313197991</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H6">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I6">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J6">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N6">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O6">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P6">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q6">
-        <v>4429.593658900307</v>
+        <v>4622.132993341975</v>
       </c>
       <c r="R6">
-        <v>4429.593658900307</v>
+        <v>27732.79796005184</v>
       </c>
       <c r="S6">
-        <v>0.01217850925979237</v>
+        <v>0.010370971224287</v>
       </c>
       <c r="T6">
-        <v>0.01217850925979237</v>
+        <v>0.008363188241434999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H7">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I7">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J7">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N7">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O7">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P7">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q7">
-        <v>172.7884284093256</v>
+        <v>191.271828000033</v>
       </c>
       <c r="R7">
-        <v>172.7884284093256</v>
+        <v>765.0873120001321</v>
       </c>
       <c r="S7">
-        <v>0.0004750560971071912</v>
+        <v>0.0004291686602403112</v>
       </c>
       <c r="T7">
-        <v>0.0004750560971071912</v>
+        <v>0.0002307220937680914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H8">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J8">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N8">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O8">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P8">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q8">
-        <v>16000.4250365967</v>
+        <v>17771.9928237677</v>
       </c>
       <c r="R8">
-        <v>16000.4250365967</v>
+        <v>106631.9569426062</v>
       </c>
       <c r="S8">
-        <v>0.04399079000785432</v>
+        <v>0.03987614082914234</v>
       </c>
       <c r="T8">
-        <v>0.04399079000785432</v>
+        <v>0.03215626240627399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H9">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J9">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N9">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O9">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P9">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q9">
-        <v>32.67690388583172</v>
+        <v>39.52876339955845</v>
       </c>
       <c r="R9">
-        <v>32.67690388583172</v>
+        <v>355.758870596026</v>
       </c>
       <c r="S9">
-        <v>8.984028947109868E-05</v>
+        <v>8.869317874215024E-05</v>
       </c>
       <c r="T9">
-        <v>8.984028947109868E-05</v>
+        <v>0.0001072837442381641</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H10">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J10">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N10">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O10">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P10">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q10">
-        <v>5169.226109541819</v>
+        <v>6348.098693885476</v>
       </c>
       <c r="R10">
-        <v>5169.226109541819</v>
+        <v>57132.88824496928</v>
       </c>
       <c r="S10">
-        <v>0.0142120187287437</v>
+        <v>0.01424362928934641</v>
       </c>
       <c r="T10">
-        <v>0.0142120187287437</v>
+        <v>0.01722917030794443</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H11">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J11">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N11">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O11">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P11">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q11">
-        <v>4355.758245378069</v>
+        <v>4862.066778068641</v>
       </c>
       <c r="R11">
-        <v>4355.758245378069</v>
+        <v>43758.60100261777</v>
       </c>
       <c r="S11">
-        <v>0.01197550976671823</v>
+        <v>0.0109093257849885</v>
       </c>
       <c r="T11">
-        <v>0.01197550976671823</v>
+        <v>0.01319597892336336</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H12">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J12">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N12">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O12">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P12">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q12">
-        <v>10889.96106406068</v>
+        <v>12156.18435905671</v>
       </c>
       <c r="R12">
-        <v>10889.96106406068</v>
+        <v>109405.6592315103</v>
       </c>
       <c r="S12">
-        <v>0.02994032903920277</v>
+        <v>0.02727559729815356</v>
       </c>
       <c r="T12">
-        <v>0.02994032903920277</v>
+        <v>0.03299270863868152</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H13">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J13">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N13">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O13">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P13">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q13">
-        <v>424.7927468283703</v>
+        <v>503.0438559884506</v>
       </c>
       <c r="R13">
-        <v>424.7927468283703</v>
+        <v>3018.263135930703</v>
       </c>
       <c r="S13">
-        <v>0.001167904507526832</v>
+        <v>0.001128711216774935</v>
       </c>
       <c r="T13">
-        <v>0.001167904507526832</v>
+        <v>0.0009101967570792197</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H14">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I14">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J14">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N14">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O14">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P14">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q14">
-        <v>83621.20840328236</v>
+        <v>112015.6560876835</v>
       </c>
       <c r="R14">
-        <v>83621.20840328236</v>
+        <v>672093.9365261007</v>
       </c>
       <c r="S14">
-        <v>0.2299040813389699</v>
+        <v>0.2513365901908057</v>
       </c>
       <c r="T14">
-        <v>0.2299040813389699</v>
+        <v>0.2026787241298728</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H15">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I15">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J15">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N15">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O15">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P15">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q15">
-        <v>170.7756002457021</v>
+        <v>249.147093994698</v>
       </c>
       <c r="R15">
-        <v>170.7756002457021</v>
+        <v>2242.323845952282</v>
       </c>
       <c r="S15">
-        <v>0.000469522125299234</v>
+        <v>0.0005590270436086017</v>
       </c>
       <c r="T15">
-        <v>0.000469522125299234</v>
+        <v>0.0006762021073016308</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H16">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I16">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J16">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N16">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O16">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P16">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q16">
-        <v>27015.34070507581</v>
+        <v>40011.63218758246</v>
       </c>
       <c r="R16">
-        <v>27015.34070507581</v>
+        <v>360104.6896882421</v>
       </c>
       <c r="S16">
-        <v>0.07427466315609878</v>
+        <v>0.08977662188688817</v>
       </c>
       <c r="T16">
-        <v>0.07427466315609878</v>
+        <v>0.1085942828712936</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H17">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I17">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J17">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N17">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O17">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P17">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q17">
-        <v>22764.00577847073</v>
+        <v>30645.27458952833</v>
       </c>
       <c r="R17">
-        <v>22764.00577847073</v>
+        <v>275807.471305755</v>
       </c>
       <c r="S17">
-        <v>0.06258624978073009</v>
+        <v>0.06876073479196348</v>
       </c>
       <c r="T17">
-        <v>0.06258624978073009</v>
+        <v>0.0831733532349254</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H18">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I18">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J18">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N18">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O18">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P18">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q18">
-        <v>56912.96959665896</v>
+        <v>76619.59916400042</v>
       </c>
       <c r="R18">
-        <v>56912.96959665896</v>
+        <v>689576.3924760037</v>
       </c>
       <c r="S18">
-        <v>0.1564737491987619</v>
+        <v>0.1719162255371871</v>
       </c>
       <c r="T18">
-        <v>0.1564737491987619</v>
+        <v>0.2079507875632935</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H19">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I19">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J19">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N19">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O19">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P19">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q19">
-        <v>2220.046200616018</v>
+        <v>3170.651042243579</v>
       </c>
       <c r="R19">
-        <v>2220.046200616018</v>
+        <v>19023.90625346147</v>
       </c>
       <c r="S19">
-        <v>0.006103686995542887</v>
+        <v>0.007114189654155384</v>
       </c>
       <c r="T19">
-        <v>0.006103686995542887</v>
+        <v>0.005736907949723992</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H20">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I20">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J20">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N20">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O20">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P20">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q20">
-        <v>37509.26291801328</v>
+        <v>38752.66258838023</v>
       </c>
       <c r="R20">
-        <v>37509.26291801328</v>
+        <v>232515.9755302814</v>
       </c>
       <c r="S20">
-        <v>0.1031261422494492</v>
+        <v>0.08695179241867811</v>
       </c>
       <c r="T20">
-        <v>0.1031261422494492</v>
+        <v>0.07011823600711806</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H21">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I21">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J21">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N21">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O21">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P21">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q21">
-        <v>76.60337624762349</v>
+        <v>86.19431966629888</v>
       </c>
       <c r="R21">
-        <v>76.60337624762349</v>
+        <v>775.7488769966899</v>
       </c>
       <c r="S21">
-        <v>0.0002106095951010204</v>
+        <v>0.0001933996296177198</v>
       </c>
       <c r="T21">
-        <v>0.0002106095951010204</v>
+        <v>0.000233937228250481</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H22">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I22">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J22">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N22">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O22">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P22">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q22">
-        <v>12118.04441331918</v>
+        <v>13842.32647409585</v>
       </c>
       <c r="R22">
-        <v>12118.04441331918</v>
+        <v>124580.9382668627</v>
       </c>
       <c r="S22">
-        <v>0.03331676164057473</v>
+        <v>0.03105890067352565</v>
       </c>
       <c r="T22">
-        <v>0.03331676164057473</v>
+        <v>0.03756901267305153</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H23">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I23">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J23">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N23">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O23">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P23">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q23">
-        <v>10211.05882246872</v>
+        <v>10601.96429297916</v>
       </c>
       <c r="R23">
-        <v>10211.05882246872</v>
+        <v>95417.67863681246</v>
       </c>
       <c r="S23">
-        <v>0.02807378825185343</v>
+        <v>0.02378829574176862</v>
       </c>
       <c r="T23">
-        <v>0.02807378825185343</v>
+        <v>0.02877444999058154</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H24">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I24">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J24">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N24">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O24">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P24">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q24">
-        <v>25528.97262319617</v>
+        <v>26507.12925106836</v>
       </c>
       <c r="R24">
-        <v>25528.97262319617</v>
+        <v>238564.1632596153</v>
       </c>
       <c r="S24">
-        <v>0.07018811507910769</v>
+        <v>0.05947571718452865</v>
       </c>
       <c r="T24">
-        <v>0.07018811507910769</v>
+        <v>0.07194214618642338</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H25">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I25">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J25">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N25">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O25">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P25">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q25">
-        <v>995.8274727081558</v>
+        <v>1096.910684783032</v>
       </c>
       <c r="R25">
-        <v>995.8274727081558</v>
+        <v>6581.464108698195</v>
       </c>
       <c r="S25">
-        <v>0.002737879596058193</v>
+        <v>0.002461207664055655</v>
       </c>
       <c r="T25">
-        <v>0.002737879596058193</v>
+        <v>0.001984726651979991</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H26">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I26">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J26">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N26">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O26">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P26">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q26">
-        <v>3236.966667331143</v>
+        <v>3373.168124868368</v>
       </c>
       <c r="R26">
-        <v>3236.966667331143</v>
+        <v>20239.00874921021</v>
       </c>
       <c r="S26">
-        <v>0.008899558642929415</v>
+        <v>0.007568590001214556</v>
       </c>
       <c r="T26">
-        <v>0.008899558642929415</v>
+        <v>0.006103338012757024</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H27">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I27">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J27">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N27">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O27">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P27">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q27">
-        <v>6.610702429972384</v>
+        <v>7.50265690725089</v>
       </c>
       <c r="R27">
-        <v>6.610702429972384</v>
+        <v>67.52391216525801</v>
       </c>
       <c r="S27">
-        <v>1.81751435812597E-05</v>
+        <v>1.683418434797949E-05</v>
       </c>
       <c r="T27">
-        <v>1.81751435812597E-05</v>
+        <v>2.036271958745845E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H28">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I28">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J28">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N28">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O28">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P28">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q28">
-        <v>1045.760507874842</v>
+        <v>1204.884808365197</v>
       </c>
       <c r="R28">
-        <v>1045.760507874842</v>
+        <v>10843.96327528678</v>
       </c>
       <c r="S28">
-        <v>0.002875163053181889</v>
+        <v>0.00270347601294377</v>
       </c>
       <c r="T28">
-        <v>0.002875163053181889</v>
+        <v>0.003270139070896033</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H29">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I29">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J29">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N29">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O29">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P29">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q29">
-        <v>881.1918570283526</v>
+        <v>922.8322810725529</v>
       </c>
       <c r="R29">
-        <v>881.1918570283526</v>
+        <v>8305.490529652976</v>
       </c>
       <c r="S29">
-        <v>0.002422706012527943</v>
+        <v>0.002070616973945318</v>
       </c>
       <c r="T29">
-        <v>0.002422706012527943</v>
+        <v>0.00250462938636768</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H30">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I30">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J30">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N30">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O30">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P30">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q30">
-        <v>2203.094036081694</v>
+        <v>2307.273810349221</v>
       </c>
       <c r="R30">
-        <v>2203.094036081694</v>
+        <v>20765.46429314298</v>
       </c>
       <c r="S30">
-        <v>0.006057079539272046</v>
+        <v>0.005176975722713132</v>
       </c>
       <c r="T30">
-        <v>0.006057079539272046</v>
+        <v>0.006262097573223984</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H31">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I31">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J31">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N31">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O31">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P31">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q31">
-        <v>85.93771470835524</v>
+        <v>95.47896610456651</v>
       </c>
       <c r="R31">
-        <v>85.93771470835524</v>
+        <v>572.8737966273991</v>
       </c>
       <c r="S31">
-        <v>0.0002362729710519151</v>
+        <v>0.0002142321762315139</v>
       </c>
       <c r="T31">
-        <v>0.0002362729710519151</v>
+        <v>0.0001727575921723382</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H32">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I32">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J32">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N32">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O32">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P32">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q32">
-        <v>10955.67890141879</v>
+        <v>11358.9728178822</v>
       </c>
       <c r="R32">
-        <v>10955.67890141879</v>
+        <v>45435.8912715288</v>
       </c>
       <c r="S32">
-        <v>0.03012101046337609</v>
+        <v>0.02548684349874972</v>
       </c>
       <c r="T32">
-        <v>0.03012101046337609</v>
+        <v>0.01370178775933571</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H33">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I33">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J33">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N33">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O33">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P33">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q33">
-        <v>22.37425978665392</v>
+        <v>25.264817144175</v>
       </c>
       <c r="R33">
-        <v>22.37425978665392</v>
+        <v>151.58890286505</v>
       </c>
       <c r="S33">
-        <v>6.151470111604143E-05</v>
+        <v>5.668826318207278E-05</v>
       </c>
       <c r="T33">
-        <v>6.151470111604143E-05</v>
+        <v>4.57136179262977E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H34">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I34">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J34">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N34">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O34">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P34">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q34">
-        <v>3539.429814860479</v>
+        <v>4057.3885677381</v>
       </c>
       <c r="R34">
-        <v>3539.429814860479</v>
+        <v>24344.3314064286</v>
       </c>
       <c r="S34">
-        <v>0.009731136102755932</v>
+        <v>0.009103818549223125</v>
       </c>
       <c r="T34">
-        <v>0.009731136102755932</v>
+        <v>0.007341351797864531</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H35">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I35">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J35">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N35">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O35">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P35">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q35">
-        <v>2982.438816432814</v>
+        <v>3107.590967342137</v>
       </c>
       <c r="R35">
-        <v>2982.438816432814</v>
+        <v>18645.54580405282</v>
       </c>
       <c r="S35">
-        <v>0.008199772155107437</v>
+        <v>0.006972697788138917</v>
       </c>
       <c r="T35">
-        <v>0.008199772155107437</v>
+        <v>0.005622808403544895</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H36">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I36">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J36">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N36">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O36">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P36">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q36">
-        <v>7456.484211758062</v>
+        <v>7769.627698646363</v>
       </c>
       <c r="R36">
-        <v>7456.484211758062</v>
+        <v>46617.76619187817</v>
       </c>
       <c r="S36">
-        <v>0.02050049485598537</v>
+        <v>0.01743320354523666</v>
       </c>
       <c r="T36">
-        <v>0.02050049485598537</v>
+        <v>0.01405819761206499</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H37">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I37">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J37">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N37">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O37">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P37">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q37">
-        <v>290.8605817194713</v>
+        <v>321.5205825839438</v>
       </c>
       <c r="R37">
-        <v>290.8605817194713</v>
+        <v>1286.082330335775</v>
       </c>
       <c r="S37">
-        <v>0.0007996779299748627</v>
+        <v>0.0007214160031304331</v>
       </c>
       <c r="T37">
-        <v>0.0007996779299748627</v>
+        <v>0.0003878349612640877</v>
       </c>
     </row>
   </sheetData>
